--- a/data/trans_orig/P70B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BCF094C-9886-457D-835E-3CF63EEDEABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BADAAD1-622D-4A8A-A64F-979BCD870DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{02571387-4AF4-43B4-82B0-1314AB4FBEEA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46C0F0C7-AB96-4903-ACA5-523527BB8C99}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
   <si>
     <t>Población que concilia su vida profesional y laboral en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>73,34%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>88,31%</t>
   </si>
   <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>81,05%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>26,66%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,10 +137,10 @@
     <t>86,69%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>85,03%</t>
@@ -149,31 +149,31 @@
     <t>80,25%</t>
   </si>
   <si>
-    <t>89,41%</t>
+    <t>88,94%</t>
   </si>
   <si>
     <t>85,9%</t>
   </si>
   <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
   </si>
   <si>
     <t>14,97%</t>
   </si>
   <si>
-    <t>10,59%</t>
+    <t>11,06%</t>
   </si>
   <si>
     <t>19,75%</t>
@@ -182,10 +182,10 @@
     <t>14,1%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,43 +194,43 @@
     <t>83,12%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -239,49 +239,55 @@
     <t>87,48%</t>
   </si>
   <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>84,6%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>88,93%</t>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>11,07%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -290,55 +296,55 @@
     <t>86,58%</t>
   </si>
   <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -347,7 +353,7 @@
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,59%</t>
+    <t>95,95%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -356,13 +362,16 @@
     <t>96,79%</t>
   </si>
   <si>
-    <t>83,81%</t>
+    <t>82,46%</t>
   </si>
   <si>
     <t>98,01%</t>
   </si>
   <si>
-    <t>90,09%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -371,73 +380,70 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,05%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>16,19%</t>
+    <t>17,54%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>9,91%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>85,31%</t>
   </si>
   <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
+    <t>83,86%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>16,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7C667B-503C-4417-8BA6-2BC2E0DB2949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995E7CB-6E95-4DCA-BD72-1D77BD0A833D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1474,10 +1480,10 @@
         <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,13 +1498,13 @@
         <v>72052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>96</v>
@@ -1507,13 +1513,13 @@
         <v>71717</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>164</v>
@@ -1522,13 +1528,13 @@
         <v>143769</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,7 +1590,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1596,13 +1602,13 @@
         <v>277841</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>342</v>
@@ -1611,13 +1617,13 @@
         <v>196370</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>651</v>
@@ -1626,13 +1632,13 @@
         <v>474211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1653,13 @@
         <v>43050</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -1662,13 +1668,13 @@
         <v>28819</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -1677,13 +1683,13 @@
         <v>71869</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,7 +1745,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1751,13 +1757,13 @@
         <v>19614</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -1766,13 +1772,13 @@
         <v>18419</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -1781,13 +1787,13 @@
         <v>38032</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1808,13 @@
         <v>159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1817,13 +1823,13 @@
         <v>611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -1832,13 +1838,13 @@
         <v>771</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1912,13 @@
         <v>1568732</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>1755</v>
@@ -1921,13 +1927,13 @@
         <v>1278491</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>3197</v>
@@ -1936,13 +1942,13 @@
         <v>2847224</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1963,13 @@
         <v>266084</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>280</v>
@@ -1972,13 +1978,13 @@
         <v>224014</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>512</v>
@@ -1987,13 +1993,13 @@
         <v>490098</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,7 +2055,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BADAAD1-622D-4A8A-A64F-979BCD870DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDC8AC9-6CBB-4410-A173-52DEA3D88900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46C0F0C7-AB96-4903-ACA5-523527BB8C99}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2AD6ED0B-66DC-475D-8827-BA0A80B1B8C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -858,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995E7CB-6E95-4DCA-BD72-1D77BD0A833D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F003E8-A2E8-49A9-B3B0-F8C21BB77215}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDC8AC9-6CBB-4410-A173-52DEA3D88900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4BB02E-2BC2-44C2-ABD0-C19517A69977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2AD6ED0B-66DC-475D-8827-BA0A80B1B8C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D651F7D-0EBA-44F9-A97C-BE0B30632030}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
   <si>
     <t>Población que concilia su vida profesional y laboral en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -74,376 +74,370 @@
     <t>73,34%</t>
   </si>
   <si>
-    <t>55,47%</t>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>26,66%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
     <t>16,04%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -858,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F003E8-A2E8-49A9-B3B0-F8C21BB77215}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFB139D-1EB6-41C0-8E7A-BA82B02EF137}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1480,10 +1474,10 @@
         <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,13 +1492,13 @@
         <v>72052</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>96</v>
@@ -1513,13 +1507,13 @@
         <v>71717</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>164</v>
@@ -1528,13 +1522,13 @@
         <v>143769</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,7 +1584,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1602,13 +1596,13 @@
         <v>277841</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>342</v>
@@ -1617,13 +1611,13 @@
         <v>196370</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>651</v>
@@ -1632,13 +1626,13 @@
         <v>474211</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1647,13 @@
         <v>43050</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -1668,13 +1662,13 @@
         <v>28819</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -1683,13 +1677,13 @@
         <v>71869</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,7 +1739,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1757,13 +1751,13 @@
         <v>19614</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -1772,13 +1766,13 @@
         <v>18419</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -1787,13 +1781,13 @@
         <v>38032</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1802,13 @@
         <v>159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1823,13 +1817,13 @@
         <v>611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -1838,13 +1832,13 @@
         <v>771</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1906,13 @@
         <v>1568732</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>1755</v>
@@ -1927,13 +1921,13 @@
         <v>1278491</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>3197</v>
@@ -1942,13 +1936,13 @@
         <v>2847224</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1957,13 @@
         <v>266084</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>280</v>
@@ -1978,13 +1972,13 @@
         <v>224014</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>512</v>
@@ -1993,13 +1987,13 @@
         <v>490098</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2049,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4BB02E-2BC2-44C2-ABD0-C19517A69977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{592B985E-8E86-4392-9BB7-F8E94772C785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D651F7D-0EBA-44F9-A97C-BE0B30632030}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{089E1AFA-7FF7-4038-B9E7-1FA0A484DEF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="144">
   <si>
     <t>Población que concilia su vida profesional y laboral en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -65,379 +65,406 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>35/44</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
   <si>
     <t>83,12%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>16,04%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,8 +879,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFB139D-1EB6-41C0-8E7A-BA82B02EF137}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96145D9A-CFDF-4435-83D3-2F2826DB1289}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -973,7 +1000,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>63227</v>
+        <v>63386</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -988,7 +1015,7 @@
         <v>48</v>
       </c>
       <c r="I4" s="7">
-        <v>80936</v>
+        <v>71455</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1003,7 +1030,7 @@
         <v>84</v>
       </c>
       <c r="N4" s="7">
-        <v>144162</v>
+        <v>134842</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1024,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>22988</v>
+        <v>24401</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1039,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>10715</v>
+        <v>9783</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1054,7 +1081,7 @@
         <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>33703</v>
+        <v>34184</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1075,7 +1102,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="7">
-        <v>86215</v>
+        <v>87787</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1090,7 +1117,7 @@
         <v>56</v>
       </c>
       <c r="I6" s="7">
-        <v>91651</v>
+        <v>81238</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1105,7 +1132,7 @@
         <v>102</v>
       </c>
       <c r="N6" s="7">
-        <v>177865</v>
+        <v>169026</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1128,7 +1155,7 @@
         <v>219</v>
       </c>
       <c r="D7" s="7">
-        <v>307302</v>
+        <v>303275</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1143,7 +1170,7 @@
         <v>256</v>
       </c>
       <c r="I7" s="7">
-        <v>276693</v>
+        <v>308709</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1158,7 +1185,7 @@
         <v>475</v>
       </c>
       <c r="N7" s="7">
-        <v>583996</v>
+        <v>611983</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1179,7 +1206,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>47170</v>
+        <v>47068</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1194,7 +1221,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>48726</v>
+        <v>44207</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1209,7 +1236,7 @@
         <v>75</v>
       </c>
       <c r="N8" s="7">
-        <v>95895</v>
+        <v>91275</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1230,7 +1257,7 @@
         <v>250</v>
       </c>
       <c r="D9" s="7">
-        <v>354472</v>
+        <v>350343</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1245,7 +1272,7 @@
         <v>300</v>
       </c>
       <c r="I9" s="7">
-        <v>325419</v>
+        <v>352916</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1260,7 +1287,7 @@
         <v>550</v>
       </c>
       <c r="N9" s="7">
-        <v>679891</v>
+        <v>703258</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1283,7 +1310,7 @@
         <v>397</v>
       </c>
       <c r="D10" s="7">
-        <v>397077</v>
+        <v>381206</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1298,31 +1325,31 @@
         <v>459</v>
       </c>
       <c r="I10" s="7">
-        <v>312238</v>
+        <v>291003</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>856</v>
       </c>
       <c r="N10" s="7">
-        <v>709315</v>
+        <v>672209</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1334,46 +1361,46 @@
         <v>74</v>
       </c>
       <c r="D11" s="7">
-        <v>80665</v>
+        <v>78969</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>86</v>
       </c>
       <c r="I11" s="7">
-        <v>63425</v>
+        <v>59101</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>160</v>
       </c>
       <c r="N11" s="7">
-        <v>144090</v>
+        <v>138070</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,7 +1412,7 @@
         <v>471</v>
       </c>
       <c r="D12" s="7">
-        <v>477742</v>
+        <v>460175</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1400,7 +1427,7 @@
         <v>545</v>
       </c>
       <c r="I12" s="7">
-        <v>375663</v>
+        <v>350104</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1415,7 +1442,7 @@
         <v>1016</v>
       </c>
       <c r="N12" s="7">
-        <v>853405</v>
+        <v>810279</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1456,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1438,46 +1465,46 @@
         <v>453</v>
       </c>
       <c r="D13" s="7">
-        <v>503671</v>
+        <v>677757</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>614</v>
       </c>
       <c r="I13" s="7">
-        <v>393837</v>
+        <v>388578</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1067</v>
       </c>
       <c r="N13" s="7">
-        <v>897509</v>
+        <v>1066335</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1489,46 +1516,46 @@
         <v>68</v>
       </c>
       <c r="D14" s="7">
-        <v>72052</v>
+        <v>68509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>96</v>
       </c>
       <c r="I14" s="7">
-        <v>71717</v>
+        <v>64198</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>164</v>
       </c>
       <c r="N14" s="7">
-        <v>143769</v>
+        <v>132707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,7 +1567,7 @@
         <v>521</v>
       </c>
       <c r="D15" s="7">
-        <v>575723</v>
+        <v>746266</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1555,7 +1582,7 @@
         <v>710</v>
       </c>
       <c r="I15" s="7">
-        <v>465554</v>
+        <v>452776</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1570,7 +1597,7 @@
         <v>1231</v>
       </c>
       <c r="N15" s="7">
-        <v>1041278</v>
+        <v>1199042</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1584,7 +1611,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1593,46 +1620,46 @@
         <v>309</v>
       </c>
       <c r="D16" s="7">
-        <v>277841</v>
+        <v>260286</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>342</v>
       </c>
       <c r="I16" s="7">
-        <v>196370</v>
+        <v>180738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>651</v>
       </c>
       <c r="N16" s="7">
-        <v>474211</v>
+        <v>441024</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,46 +1671,46 @@
         <v>48</v>
       </c>
       <c r="D17" s="7">
-        <v>43050</v>
+        <v>40018</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
       </c>
       <c r="I17" s="7">
-        <v>28819</v>
+        <v>26437</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
       </c>
       <c r="N17" s="7">
-        <v>71869</v>
+        <v>66455</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,7 +1722,7 @@
         <v>357</v>
       </c>
       <c r="D18" s="7">
-        <v>320891</v>
+        <v>300304</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1710,7 +1737,7 @@
         <v>387</v>
       </c>
       <c r="I18" s="7">
-        <v>225189</v>
+        <v>207175</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1725,7 +1752,7 @@
         <v>744</v>
       </c>
       <c r="N18" s="7">
-        <v>546080</v>
+        <v>507479</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1739,55 +1766,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>19614</v>
+        <v>16776</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>18419</v>
+        <v>17185</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N19" s="7">
-        <v>38032</v>
+        <v>33962</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,46 +1826,46 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>611</v>
+        <v>566</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>771</v>
+        <v>732</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,10 +1874,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7">
-        <v>19773</v>
+        <v>16943</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1865,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="I21" s="7">
-        <v>19030</v>
+        <v>17751</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1877,10 +1904,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N21" s="7">
-        <v>38803</v>
+        <v>34694</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1894,55 +1921,53 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1442</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1568732</v>
+        <v>1598</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="H22" s="7">
-        <v>1755</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1278491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
-        <v>3197</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>2847224</v>
+        <v>1598</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,49 +1976,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>266084</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="H23" s="7">
-        <v>280</v>
-      </c>
-      <c r="I23" s="7">
-        <v>224014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>490098</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,63 +2025,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1598</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1598</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1442</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1704284</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1755</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1257670</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3197</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2961954</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>232</v>
+      </c>
+      <c r="D26" s="7">
+        <v>259132</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="7">
+        <v>280</v>
+      </c>
+      <c r="I26" s="7">
+        <v>204291</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M26" s="7">
+        <v>512</v>
+      </c>
+      <c r="N26" s="7">
+        <v>463423</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1674</v>
       </c>
-      <c r="D24" s="7">
-        <v>1834816</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1963416</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2035</v>
       </c>
-      <c r="I24" s="7">
-        <v>1502505</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1461961</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>3709</v>
       </c>
-      <c r="N24" s="7">
-        <v>3337322</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>134</v>
+      <c r="N27" s="7">
+        <v>3425377</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
